--- a/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F018AF9-F692-4EE3-B534-F8624A00315A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E9087A-E402-4B31-AC3C-51FE84972CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAF5C90B-1F38-47DF-9164-7A0EF73E3D7A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6D9A167-A391-4219-B377-1A1D75A0A90C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="901">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,2593 +80,2668 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>78,2%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>15,17%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>23,18%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>77,06%</t>
+    <t>82,05%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>79,01%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
 </sst>
 </file>
@@ -3078,7 +3153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511E367-95B1-4C7F-BE22-D007C243198F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE33AED-8F84-4DEC-B604-91EB31ACA1BD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4492,10 +4567,10 @@
         <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -4504,13 +4579,13 @@
         <v>29186</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -4519,13 +4594,13 @@
         <v>42583</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4615,13 @@
         <v>89921</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>83</v>
@@ -4555,13 +4630,13 @@
         <v>81130</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>174</v>
@@ -4570,13 +4645,13 @@
         <v>171051</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,7 +4707,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4644,13 +4719,13 @@
         <v>7598</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4659,13 +4734,13 @@
         <v>9395</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -4674,13 +4749,13 @@
         <v>16993</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4770,13 @@
         <v>23202</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H33" s="7">
         <v>30</v>
@@ -4710,13 +4785,13 @@
         <v>33534</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -4725,10 +4800,10 @@
         <v>56736</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>222</v>
@@ -4761,13 +4836,13 @@
         <v>110297</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>190</v>
@@ -4776,13 +4851,13 @@
         <v>191390</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4925,13 @@
         <v>29806</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -4865,13 +4940,13 @@
         <v>48960</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -4880,13 +4955,13 @@
         <v>78766</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4976,13 @@
         <v>84223</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>146</v>
@@ -4916,13 +4991,13 @@
         <v>157952</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>234</v>
@@ -4931,13 +5006,13 @@
         <v>242175</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +5027,13 @@
         <v>388438</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>469</v>
@@ -4967,13 +5042,13 @@
         <v>469930</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M38" s="7">
         <v>872</v>
@@ -4982,13 +5057,13 @@
         <v>858368</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,7 +5119,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5068,7 +5143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DFCE50-F8EC-40A5-A0C1-0695688B09F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9117DCC2-7692-4AAF-8A76-56C6B3EAF407}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5085,7 +5160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5190,39 +5265,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,39 +5310,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,39 +5355,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,39 +5400,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5449,13 @@
         <v>10644</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5389,13 +5464,13 @@
         <v>17522</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5404,10 +5479,10 @@
         <v>28166</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>269</v>
@@ -5440,13 +5515,13 @@
         <v>22677</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -5455,13 +5530,13 @@
         <v>35552</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5551,13 @@
         <v>55685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5491,13 +5566,13 @@
         <v>61894</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -5506,13 +5581,13 @@
         <v>117578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5655,13 @@
         <v>7170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5595,13 +5670,13 @@
         <v>9821</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -5610,13 +5685,13 @@
         <v>16991</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,7 +5778,7 @@
         <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5712,13 +5787,13 @@
         <v>101110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5861,13 @@
         <v>9499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5801,13 +5876,13 @@
         <v>21387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -5816,13 +5891,13 @@
         <v>30887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5912,13 @@
         <v>25331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5852,13 +5927,13 @@
         <v>40282</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5867,13 +5942,13 @@
         <v>65614</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5963,13 @@
         <v>73477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5903,13 +5978,13 @@
         <v>72798</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -5918,13 +5993,13 @@
         <v>146276</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6067,13 @@
         <v>3292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6007,13 +6082,13 @@
         <v>7412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -6022,13 +6097,13 @@
         <v>10703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6118,13 @@
         <v>5683</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -6058,13 +6133,13 @@
         <v>15549</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -6073,13 +6148,13 @@
         <v>21232</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6169,13 @@
         <v>22637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -6109,13 +6184,13 @@
         <v>26894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -6124,13 +6199,13 @@
         <v>49531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6273,13 @@
         <v>8600</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6213,13 +6288,13 @@
         <v>11800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -6228,13 +6303,13 @@
         <v>20400</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6324,13 @@
         <v>6333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6264,13 +6339,13 @@
         <v>5387</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6279,13 +6354,13 @@
         <v>11720</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6375,13 @@
         <v>36822</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -6315,13 +6390,13 @@
         <v>53025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -6330,13 +6405,13 @@
         <v>89848</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6479,13 @@
         <v>11372</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -6419,13 +6494,13 @@
         <v>11917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>389</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6434,13 +6509,13 @@
         <v>23288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>395</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6530,13 @@
         <v>15009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>235</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6470,13 +6545,13 @@
         <v>26711</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -6485,13 +6560,13 @@
         <v>41720</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6581,13 @@
         <v>85882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="H30" s="7">
         <v>95</v>
@@ -6521,13 +6596,13 @@
         <v>103335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -6536,13 +6611,13 @@
         <v>189217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,7 +6673,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6610,13 +6685,13 @@
         <v>4354</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>408</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6625,13 +6700,13 @@
         <v>15748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -6640,13 +6715,13 @@
         <v>20102</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6736,13 @@
         <v>14381</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>339</v>
+        <v>134</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -6676,13 +6751,13 @@
         <v>28690</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M33" s="7">
         <v>37</v>
@@ -6691,13 +6766,13 @@
         <v>43071</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>424</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6787,13 @@
         <v>102017</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -6727,13 +6802,13 @@
         <v>119979</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>59</v>
+        <v>433</v>
       </c>
       <c r="M34" s="7">
         <v>202</v>
@@ -6742,13 +6817,13 @@
         <v>221995</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6891,13 @@
         <v>54930</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -6831,13 +6906,13 @@
         <v>95607</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M36" s="7">
         <v>135</v>
@@ -6846,13 +6921,13 @@
         <v>150537</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6942,13 @@
         <v>83709</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H37" s="7">
         <v>143</v>
@@ -6882,13 +6957,13 @@
         <v>152810</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M37" s="7">
         <v>216</v>
@@ -6897,13 +6972,13 @@
         <v>236520</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6993,13 @@
         <v>420997</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H38" s="7">
         <v>465</v>
@@ -6936,10 +7011,10 @@
         <v>145</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M38" s="7">
         <v>847</v>
@@ -6948,13 +7023,13 @@
         <v>915555</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,7 +7085,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7034,7 +7109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F2DAB3-A632-4D83-9DE2-6B1A25AA5B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3CAF8F-EBB7-4950-87D0-C93FC1BCF5D5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7051,7 +7126,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7158,13 +7233,13 @@
         <v>4871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7173,13 +7248,13 @@
         <v>4514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -7188,13 +7263,13 @@
         <v>9385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7284,13 @@
         <v>4127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7224,13 +7299,13 @@
         <v>15747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -7239,13 +7314,13 @@
         <v>19874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,10 +7338,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -7275,13 +7350,13 @@
         <v>29130</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -7290,13 +7365,13 @@
         <v>59028</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7439,13 @@
         <v>4143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7379,13 +7454,13 @@
         <v>10421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -7394,13 +7469,13 @@
         <v>14564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7490,13 @@
         <v>7726</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>488</v>
+        <v>317</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -7430,13 +7505,13 @@
         <v>23298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -7445,13 +7520,13 @@
         <v>31024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7541,13 @@
         <v>75426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7481,13 +7556,13 @@
         <v>81509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -7496,13 +7571,13 @@
         <v>156935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7645,13 @@
         <v>2770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7585,13 +7660,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7600,13 +7675,13 @@
         <v>7248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7696,13 @@
         <v>10362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>410</v>
+        <v>523</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -7636,13 +7711,13 @@
         <v>8029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>526</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -7654,10 +7729,10 @@
         <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>527</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7747,13 @@
         <v>50414</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>529</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -7687,13 +7762,13 @@
         <v>67390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -7702,13 +7777,13 @@
         <v>117805</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,13 +7851,13 @@
         <v>5865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7791,13 +7866,13 @@
         <v>2571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -7806,13 +7881,13 @@
         <v>8436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,13 +7902,13 @@
         <v>8093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -7845,10 +7920,10 @@
         <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7857,13 +7932,13 @@
         <v>31648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,13 +7953,13 @@
         <v>50754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -7893,13 +7968,13 @@
         <v>65448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -7908,13 +7983,13 @@
         <v>116201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,10 +8060,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>551</v>
+        <v>496</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7997,13 +8072,13 @@
         <v>3426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -8012,13 +8087,13 @@
         <v>3426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8108,13 @@
         <v>4932</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -8048,13 +8123,13 @@
         <v>14756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -8063,13 +8138,13 @@
         <v>19688</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>441</v>
+        <v>574</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8159,13 @@
         <v>37148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8099,13 +8174,13 @@
         <v>32350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>580</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -8114,13 +8189,13 @@
         <v>69499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8263,13 @@
         <v>10000</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8203,13 +8278,13 @@
         <v>9590</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -8218,13 +8293,13 @@
         <v>19590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>192</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,13 +8314,13 @@
         <v>3316</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8254,13 +8329,13 @@
         <v>9272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>239</v>
+        <v>597</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -8269,13 +8344,13 @@
         <v>12588</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>15</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8290,13 +8365,13 @@
         <v>35129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -8305,13 +8380,13 @@
         <v>48527</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>94</v>
+        <v>606</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -8320,13 +8395,13 @@
         <v>83656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8469,13 @@
         <v>9310</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>593</v>
+        <v>365</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -8409,13 +8484,13 @@
         <v>11094</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>551</v>
+        <v>104</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -8424,13 +8499,13 @@
         <v>20404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,13 +8520,13 @@
         <v>16382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -8460,13 +8535,13 @@
         <v>38363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -8475,13 +8550,13 @@
         <v>54745</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>608</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8496,13 +8571,13 @@
         <v>86493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H30" s="7">
         <v>84</v>
@@ -8511,13 +8586,13 @@
         <v>98168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -8526,13 +8601,13 @@
         <v>184661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8588,7 +8663,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8600,13 +8675,13 @@
         <v>8922</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>620</v>
+        <v>515</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8615,13 +8690,13 @@
         <v>4013</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>463</v>
+        <v>637</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>134</v>
+        <v>639</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8630,13 +8705,13 @@
         <v>12935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>624</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,13 +8726,13 @@
         <v>12404</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -8666,13 +8741,13 @@
         <v>50362</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="M33" s="7">
         <v>51</v>
@@ -8681,13 +8756,13 @@
         <v>62766</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8702,13 +8777,13 @@
         <v>112842</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>120</v>
+        <v>650</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="H34" s="7">
         <v>101</v>
@@ -8717,13 +8792,13 @@
         <v>121921</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>63</v>
+        <v>652</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="M34" s="7">
         <v>220</v>
@@ -8732,13 +8807,13 @@
         <v>234763</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,13 +8881,13 @@
         <v>45882</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="H36" s="7">
         <v>39</v>
@@ -8821,13 +8896,13 @@
         <v>50105</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="M36" s="7">
         <v>90</v>
@@ -8836,13 +8911,13 @@
         <v>95987</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>646</v>
+        <v>399</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,13 +8932,13 @@
         <v>67342</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="H37" s="7">
         <v>146</v>
@@ -8872,13 +8947,13 @@
         <v>183381</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>652</v>
+        <v>154</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="M37" s="7">
         <v>221</v>
@@ -8887,13 +8962,13 @@
         <v>250723</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8908,13 +8983,13 @@
         <v>478104</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="H38" s="7">
         <v>470</v>
@@ -8923,13 +8998,13 @@
         <v>544444</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="M38" s="7">
         <v>971</v>
@@ -8938,13 +9013,13 @@
         <v>1022548</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9000,7 +9075,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -9024,7 +9099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08350F38-A784-463D-A01B-F8CAB276D527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169AF78E-75A1-4D38-9B3C-B51E7E895A2F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9041,7 +9116,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9148,13 +9223,13 @@
         <v>4606</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -9163,13 +9238,13 @@
         <v>9475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>686</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -9178,13 +9253,13 @@
         <v>14080</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9199,13 +9274,13 @@
         <v>19909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -9214,13 +9289,13 @@
         <v>20053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>679</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -9229,13 +9304,13 @@
         <v>39963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9250,13 +9325,13 @@
         <v>27405</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -9265,13 +9340,13 @@
         <v>32691</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="M6" s="7">
         <v>116</v>
@@ -9280,13 +9355,13 @@
         <v>60096</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,13 +9429,13 @@
         <v>7383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -9369,13 +9444,13 @@
         <v>21555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>697</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -9384,13 +9459,13 @@
         <v>28938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9405,13 +9480,13 @@
         <v>6505</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>716</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
@@ -9420,13 +9495,13 @@
         <v>34198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -9435,13 +9510,13 @@
         <v>40703</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>322</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9456,13 +9531,13 @@
         <v>72427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="H10" s="7">
         <v>137</v>
@@ -9471,13 +9546,13 @@
         <v>85603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>729</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -9486,13 +9561,13 @@
         <v>158030</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>614</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9560,13 +9635,13 @@
         <v>15830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>669</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -9578,10 +9653,10 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>717</v>
+        <v>195</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -9590,13 +9665,13 @@
         <v>34069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>720</v>
+        <v>518</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9611,13 +9686,13 @@
         <v>7275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>724</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -9626,13 +9701,13 @@
         <v>22651</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>742</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -9641,13 +9716,13 @@
         <v>29925</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9662,13 +9737,13 @@
         <v>54497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -9677,13 +9752,13 @@
         <v>53450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
@@ -9692,13 +9767,13 @@
         <v>107947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9766,13 +9841,13 @@
         <v>3202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>693</v>
+        <v>756</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -9781,13 +9856,13 @@
         <v>10057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -9796,13 +9871,13 @@
         <v>13259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>646</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9817,13 +9892,13 @@
         <v>14340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>576</v>
+        <v>766</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -9832,13 +9907,13 @@
         <v>23620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -9847,13 +9922,13 @@
         <v>37960</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9868,13 +9943,13 @@
         <v>61263</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="H18" s="7">
         <v>179</v>
@@ -9883,13 +9958,13 @@
         <v>76778</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="M18" s="7">
         <v>270</v>
@@ -9898,13 +9973,13 @@
         <v>138041</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9972,13 +10047,13 @@
         <v>1758</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -9987,13 +10062,13 @@
         <v>2132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -10002,13 +10077,13 @@
         <v>3891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>767</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10023,13 +10098,13 @@
         <v>5271</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>242</v>
+        <v>788</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -10038,13 +10113,13 @@
         <v>13143</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -10053,13 +10128,13 @@
         <v>18414</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10074,13 +10149,13 @@
         <v>31302</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -10089,13 +10164,13 @@
         <v>50205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -10104,13 +10179,13 @@
         <v>81507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10178,13 +10253,13 @@
         <v>12650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -10193,13 +10268,13 @@
         <v>14543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -10208,13 +10283,13 @@
         <v>27193</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10232,10 +10307,10 @@
         <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -10244,13 +10319,13 @@
         <v>14565</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>798</v>
+        <v>818</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -10259,13 +10334,13 @@
         <v>25241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10280,13 +10355,13 @@
         <v>39857</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>825</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -10295,13 +10370,13 @@
         <v>40746</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="M26" s="7">
         <v>180</v>
@@ -10310,13 +10385,13 @@
         <v>80603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10384,13 +10459,13 @@
         <v>3100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -10399,13 +10474,13 @@
         <v>25000</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>836</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -10414,13 +10489,13 @@
         <v>28100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10435,13 +10510,13 @@
         <v>13276</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>818</v>
+        <v>659</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -10450,13 +10525,13 @@
         <v>28350</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>482</v>
+        <v>842</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -10465,13 +10540,13 @@
         <v>41626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>48</v>
+        <v>846</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10486,13 +10561,13 @@
         <v>113709</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
@@ -10501,13 +10576,13 @@
         <v>205493</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>827</v>
+        <v>147</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -10516,13 +10591,13 @@
         <v>319202</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10578,7 +10653,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10590,13 +10665,13 @@
         <v>2973</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -10605,13 +10680,13 @@
         <v>8856</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>547</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -10623,10 +10698,10 @@
         <v>156</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>294</v>
+        <v>594</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10641,13 +10716,13 @@
         <v>12473</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>838</v>
+        <v>787</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>696</v>
+        <v>862</v>
       </c>
       <c r="H33" s="7">
         <v>73</v>
@@ -10656,13 +10731,13 @@
         <v>49675</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="M33" s="7">
         <v>90</v>
@@ -10671,13 +10746,13 @@
         <v>62148</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10692,13 +10767,13 @@
         <v>153788</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="H34" s="7">
         <v>258</v>
@@ -10707,13 +10782,13 @@
         <v>164512</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="M34" s="7">
         <v>470</v>
@@ -10722,13 +10797,13 @@
         <v>318299</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>852</v>
+        <v>875</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10796,13 +10871,13 @@
         <v>51502</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="H36" s="7">
         <v>199</v>
@@ -10811,13 +10886,13 @@
         <v>109857</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>857</v>
+        <v>712</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
       <c r="M36" s="7">
         <v>285</v>
@@ -10826,13 +10901,13 @@
         <v>161359</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>494</v>
+        <v>884</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10847,13 +10922,13 @@
         <v>89723</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>743</v>
+        <v>885</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>482</v>
+        <v>886</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="H37" s="7">
         <v>383</v>
@@ -10862,13 +10937,13 @@
         <v>206256</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>864</v>
+        <v>614</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="M37" s="7">
         <v>521</v>
@@ -10877,13 +10952,13 @@
         <v>295979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10898,13 +10973,13 @@
         <v>554248</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>870</v>
+        <v>681</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="H38" s="7">
         <v>1124</v>
@@ -10913,13 +10988,13 @@
         <v>709478</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>122</v>
+        <v>896</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>872</v>
+        <v>897</v>
       </c>
       <c r="M38" s="7">
         <v>1925</v>
@@ -10928,13 +11003,13 @@
         <v>1263725</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>873</v>
+        <v>898</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>875</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10990,7 +11065,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E9087A-E402-4B31-AC3C-51FE84972CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3AA2AD6-CC7A-457F-ACD8-BE813C5B991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6D9A167-A391-4219-B377-1A1D75A0A90C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BA3286B-38D0-41B5-B486-0C9065476C91}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="885">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,22 +80,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>12,96%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>18,29%</t>
+    <t>19,13%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -104,28 +104,28 @@
     <t>21,9%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -134,28 +134,28 @@
     <t>75,5%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,2560 +167,2512 @@
     <t>8,94%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>77,09%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
   </si>
   <si>
     <t>82,05%</t>
@@ -3153,7 +3105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE33AED-8F84-4DEC-B604-91EB31ACA1BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3AE846-C31F-4D3B-9051-06C4C1CCFF1F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4528,13 +4480,13 @@
         <v>6805</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -4543,13 +4495,13 @@
         <v>9415</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4516,13 @@
         <v>13397</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -4579,13 +4531,13 @@
         <v>29186</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -4594,13 +4546,13 @@
         <v>42583</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4567,13 @@
         <v>89921</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>83</v>
@@ -4630,13 +4582,13 @@
         <v>81130</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>174</v>
@@ -4645,13 +4597,13 @@
         <v>171051</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4659,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4719,13 +4671,13 @@
         <v>7598</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4734,13 +4686,13 @@
         <v>9395</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -4749,13 +4701,13 @@
         <v>16993</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4722,13 @@
         <v>23202</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H33" s="7">
         <v>30</v>
@@ -4785,13 +4737,13 @@
         <v>33534</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -4800,13 +4752,13 @@
         <v>56736</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4773,13 @@
         <v>81093</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>106</v>
@@ -4836,7 +4788,7 @@
         <v>110297</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>226</v>
@@ -4931,7 +4883,7 @@
         <v>232</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -4940,13 +4892,13 @@
         <v>48960</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -4955,13 +4907,13 @@
         <v>78766</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4928,13 @@
         <v>84223</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>146</v>
@@ -4991,13 +4943,13 @@
         <v>157952</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>234</v>
@@ -5006,13 +4958,13 @@
         <v>242175</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +4979,13 @@
         <v>388438</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H38" s="7">
         <v>469</v>
@@ -5042,13 +4994,13 @@
         <v>469930</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M38" s="7">
         <v>872</v>
@@ -5057,13 +5009,13 @@
         <v>858368</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5071,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5143,7 +5095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9117DCC2-7692-4AAF-8A76-56C6B3EAF407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D3E4DF-8B49-4A26-AF65-3B75B427AA45}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5160,7 +5112,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5265,39 +5217,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,39 +5262,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,39 +5307,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,39 +5352,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5401,13 @@
         <v>10644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5464,13 +5416,13 @@
         <v>17522</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5479,13 +5431,13 @@
         <v>28166</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5452,13 @@
         <v>12875</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5515,13 +5467,13 @@
         <v>22677</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -5530,13 +5482,13 @@
         <v>35552</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5503,13 @@
         <v>55685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5566,13 +5518,13 @@
         <v>61894</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -5581,13 +5533,13 @@
         <v>117578</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5607,13 @@
         <v>7170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5670,13 +5622,13 @@
         <v>9821</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -5685,13 +5637,13 @@
         <v>16991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,10 +5661,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5721,13 +5673,13 @@
         <v>13514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5736,13 +5688,13 @@
         <v>17609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5709,13 @@
         <v>44477</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -5772,13 +5724,13 @@
         <v>56634</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5787,13 +5739,13 @@
         <v>101110</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5813,13 @@
         <v>9499</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5876,13 +5828,13 @@
         <v>21387</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -5891,13 +5843,13 @@
         <v>30887</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5864,13 @@
         <v>25331</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5927,13 +5879,13 @@
         <v>40282</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5942,13 +5894,13 @@
         <v>65614</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5915,13 @@
         <v>73477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5978,13 +5930,13 @@
         <v>72798</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -5993,13 +5945,13 @@
         <v>146276</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6019,13 @@
         <v>3292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6082,13 +6034,13 @@
         <v>7412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -6097,13 +6049,13 @@
         <v>10703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6070,13 @@
         <v>5683</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -6133,13 +6085,13 @@
         <v>15549</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -6148,13 +6100,13 @@
         <v>21232</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6121,13 @@
         <v>22637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -6184,13 +6136,13 @@
         <v>26894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -6199,13 +6151,13 @@
         <v>49531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6225,13 @@
         <v>8600</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6288,13 +6240,13 @@
         <v>11800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -6303,13 +6255,13 @@
         <v>20400</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6276,13 @@
         <v>6333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6339,13 +6291,13 @@
         <v>5387</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6354,13 +6306,13 @@
         <v>11720</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6327,13 @@
         <v>36822</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -6390,13 +6342,13 @@
         <v>53025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -6405,13 +6357,13 @@
         <v>89848</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6431,13 @@
         <v>11372</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>390</v>
+        <v>264</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -6494,13 +6446,13 @@
         <v>11917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>215</v>
+        <v>387</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6509,13 +6461,13 @@
         <v>23288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>397</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6482,13 @@
         <v>15009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6545,13 +6497,13 @@
         <v>26711</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -6560,13 +6512,13 @@
         <v>41720</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6533,13 @@
         <v>85882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="H30" s="7">
         <v>95</v>
@@ -6596,13 +6548,13 @@
         <v>103335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -6611,13 +6563,13 @@
         <v>189217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,7 +6625,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6685,13 +6637,13 @@
         <v>4354</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>212</v>
+        <v>406</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>414</v>
+        <v>72</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6700,13 +6652,13 @@
         <v>15748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -6715,13 +6667,13 @@
         <v>20102</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>420</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6688,13 @@
         <v>14381</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -6751,13 +6703,13 @@
         <v>28690</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M33" s="7">
         <v>37</v>
@@ -6766,13 +6718,13 @@
         <v>43071</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6739,13 @@
         <v>102017</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -6802,13 +6754,13 @@
         <v>119979</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M34" s="7">
         <v>202</v>
@@ -6817,13 +6769,13 @@
         <v>221995</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6843,13 @@
         <v>54930</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>438</v>
+        <v>186</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -6906,13 +6858,13 @@
         <v>95607</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>441</v>
+        <v>262</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M36" s="7">
         <v>135</v>
@@ -6921,13 +6873,13 @@
         <v>150537</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6894,13 @@
         <v>83709</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H37" s="7">
         <v>143</v>
@@ -6957,13 +6909,13 @@
         <v>152810</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M37" s="7">
         <v>216</v>
@@ -6972,13 +6924,13 @@
         <v>236520</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>452</v>
+        <v>102</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +6945,13 @@
         <v>420997</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="H38" s="7">
         <v>465</v>
@@ -7011,10 +6963,10 @@
         <v>145</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M38" s="7">
         <v>847</v>
@@ -7023,13 +6975,13 @@
         <v>915555</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,7 +7037,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +7061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3CAF8F-EBB7-4950-87D0-C93FC1BCF5D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19D1AF5-69E8-44E4-92F9-65AF086E8C54}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7126,7 +7078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7233,13 +7185,13 @@
         <v>4871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7248,13 +7200,13 @@
         <v>4514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -7263,13 +7215,13 @@
         <v>9385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,13 +7236,13 @@
         <v>4127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7299,13 +7251,13 @@
         <v>15747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -7314,13 +7266,13 @@
         <v>19874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,10 +7290,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -7350,28 +7302,28 @@
         <v>29130</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>59028</v>
+        <v>59027</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,7 +7365,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -7439,13 +7391,13 @@
         <v>4143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>479</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7454,13 +7406,13 @@
         <v>10421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -7469,13 +7421,13 @@
         <v>14564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7442,13 @@
         <v>7726</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>317</v>
+        <v>486</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>496</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -7505,13 +7457,13 @@
         <v>23298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>499</v>
+        <v>105</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -7520,13 +7472,13 @@
         <v>31024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>503</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7493,13 @@
         <v>75426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>505</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7556,13 +7508,13 @@
         <v>81509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -7571,13 +7523,13 @@
         <v>156935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7597,13 @@
         <v>2770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7660,13 +7612,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7675,13 +7627,13 @@
         <v>7248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7648,13 @@
         <v>10362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -7711,13 +7663,13 @@
         <v>8029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>525</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -7729,10 +7681,10 @@
         <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,13 +7699,13 @@
         <v>50414</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -7762,13 +7714,13 @@
         <v>67390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -7777,13 +7729,13 @@
         <v>117805</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7803,13 @@
         <v>5865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7866,13 +7818,13 @@
         <v>2571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>542</v>
+        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -7881,13 +7833,13 @@
         <v>8436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>543</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7902,13 +7854,13 @@
         <v>8093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -7920,10 +7872,10 @@
         <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7932,13 +7884,13 @@
         <v>31648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,13 +7905,13 @@
         <v>50754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -7968,13 +7920,13 @@
         <v>65448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -7983,13 +7935,13 @@
         <v>116201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8060,10 +8012,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>496</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -8072,13 +8024,13 @@
         <v>3426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>566</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -8087,13 +8039,13 @@
         <v>3426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8060,13 @@
         <v>4932</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>468</v>
+        <v>555</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -8123,13 +8075,13 @@
         <v>14756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -8138,13 +8090,13 @@
         <v>19688</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>574</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,13 +8111,13 @@
         <v>37148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8174,13 +8126,13 @@
         <v>32350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -8189,13 +8141,13 @@
         <v>69499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8215,13 @@
         <v>10000</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>587</v>
+        <v>464</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8278,13 +8230,13 @@
         <v>9590</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -8293,13 +8245,13 @@
         <v>19590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,13 +8266,13 @@
         <v>3316</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>182</v>
+        <v>578</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8329,13 +8281,13 @@
         <v>9272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>596</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -8344,13 +8296,13 @@
         <v>12588</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,13 +8317,13 @@
         <v>35129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -8380,13 +8332,13 @@
         <v>48527</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -8395,13 +8347,13 @@
         <v>83656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8421,13 @@
         <v>9310</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>595</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -8484,13 +8436,13 @@
         <v>11094</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>104</v>
+        <v>599</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -8499,13 +8451,13 @@
         <v>20404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,13 +8472,13 @@
         <v>16382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -8535,13 +8487,13 @@
         <v>38363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -8550,13 +8502,13 @@
         <v>54745</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>276</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8571,13 +8523,13 @@
         <v>86493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="H30" s="7">
         <v>84</v>
@@ -8586,13 +8538,13 @@
         <v>98168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -8601,13 +8553,13 @@
         <v>184661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8663,7 +8615,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8675,13 +8627,13 @@
         <v>8922</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>515</v>
+        <v>623</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8690,13 +8642,13 @@
         <v>4013</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>639</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8705,13 +8657,13 @@
         <v>12935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>640</v>
+        <v>453</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>347</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8726,13 +8678,13 @@
         <v>12404</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -8741,13 +8693,13 @@
         <v>50362</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>553</v>
+        <v>629</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="M33" s="7">
         <v>51</v>
@@ -8756,13 +8708,13 @@
         <v>62766</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8777,13 +8729,13 @@
         <v>112842</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="H34" s="7">
         <v>101</v>
@@ -8792,13 +8744,13 @@
         <v>121921</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="M34" s="7">
         <v>220</v>
@@ -8807,13 +8759,13 @@
         <v>234763</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8881,13 +8833,13 @@
         <v>45882</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="H36" s="7">
         <v>39</v>
@@ -8896,13 +8848,13 @@
         <v>50105</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="M36" s="7">
         <v>90</v>
@@ -8911,13 +8863,13 @@
         <v>95987</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>399</v>
+        <v>649</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8932,13 +8884,13 @@
         <v>67342</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>666</v>
+        <v>603</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="H37" s="7">
         <v>146</v>
@@ -8947,13 +8899,13 @@
         <v>183381</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>154</v>
+        <v>654</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>669</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="M37" s="7">
         <v>221</v>
@@ -8962,13 +8914,13 @@
         <v>250723</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,13 +8935,13 @@
         <v>478104</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="H38" s="7">
         <v>470</v>
@@ -8998,13 +8950,13 @@
         <v>544444</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="M38" s="7">
         <v>971</v>
@@ -9013,13 +8965,13 @@
         <v>1022548</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>681</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9075,7 +9027,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -9099,7 +9051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169AF78E-75A1-4D38-9B3C-B51E7E895A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC2F05D-FDA6-42E9-BA9F-E522A35C8985}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9116,7 +9068,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9223,13 +9175,13 @@
         <v>4606</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>684</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -9238,13 +9190,13 @@
         <v>9475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -9253,13 +9205,13 @@
         <v>14080</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9274,13 +9226,13 @@
         <v>19909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -9289,13 +9241,13 @@
         <v>20053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>696</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -9304,13 +9256,13 @@
         <v>39963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,13 +9277,13 @@
         <v>27405</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>702</v>
+        <v>122</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -9340,13 +9292,13 @@
         <v>32691</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="M6" s="7">
         <v>116</v>
@@ -9355,13 +9307,13 @@
         <v>60096</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9429,13 +9381,13 @@
         <v>7383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -9444,13 +9396,13 @@
         <v>21555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -9459,13 +9411,13 @@
         <v>28938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9480,13 +9432,13 @@
         <v>6505</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
@@ -9495,13 +9447,13 @@
         <v>34198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -9510,13 +9462,13 @@
         <v>40703</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9531,13 +9483,13 @@
         <v>72427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="H10" s="7">
         <v>137</v>
@@ -9546,13 +9498,13 @@
         <v>85603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -9561,13 +9513,13 @@
         <v>158030</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9635,13 +9587,13 @@
         <v>15830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -9653,10 +9605,10 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>195</v>
+        <v>720</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -9665,13 +9617,13 @@
         <v>34069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>518</v>
+        <v>723</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9686,13 +9638,13 @@
         <v>7275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>727</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -9701,13 +9653,13 @@
         <v>22651</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -9716,13 +9668,13 @@
         <v>29925</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>746</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9737,13 +9689,13 @@
         <v>54497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -9752,13 +9704,13 @@
         <v>53450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
@@ -9767,13 +9719,13 @@
         <v>107947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9841,13 +9793,13 @@
         <v>3202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -9856,13 +9808,13 @@
         <v>10057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>760</v>
+        <v>584</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -9871,13 +9823,13 @@
         <v>13259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>649</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9892,13 +9844,13 @@
         <v>14340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -9907,13 +9859,13 @@
         <v>23620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -9922,13 +9874,13 @@
         <v>37960</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>771</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9943,13 +9895,13 @@
         <v>61263</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="H18" s="7">
         <v>179</v>
@@ -9958,13 +9910,13 @@
         <v>76778</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="M18" s="7">
         <v>270</v>
@@ -9973,13 +9925,13 @@
         <v>138041</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>781</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10047,13 +9999,13 @@
         <v>1758</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>765</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -10062,10 +10014,10 @@
         <v>2132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>784</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>130</v>
@@ -10077,13 +10029,13 @@
         <v>3891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>769</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10098,13 +10050,13 @@
         <v>5271</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -10113,13 +10065,13 @@
         <v>13143</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>791</v>
+        <v>189</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -10128,13 +10080,13 @@
         <v>18414</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10149,13 +10101,13 @@
         <v>31302</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -10164,13 +10116,13 @@
         <v>50205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -10179,13 +10131,13 @@
         <v>81507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10253,13 +10205,13 @@
         <v>12650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -10268,13 +10220,13 @@
         <v>14543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -10283,13 +10235,13 @@
         <v>27193</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10304,13 +10256,13 @@
         <v>10676</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -10319,13 +10271,13 @@
         <v>14565</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -10334,13 +10286,13 @@
         <v>25241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10355,13 +10307,13 @@
         <v>39857</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -10370,13 +10322,13 @@
         <v>40746</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>827</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="M26" s="7">
         <v>180</v>
@@ -10385,13 +10337,13 @@
         <v>80603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10459,13 +10411,13 @@
         <v>3100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -10474,13 +10426,13 @@
         <v>25000</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -10489,13 +10441,13 @@
         <v>28100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10510,13 +10462,13 @@
         <v>13276</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>659</v>
+        <v>823</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -10525,13 +10477,13 @@
         <v>28350</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -10540,13 +10492,13 @@
         <v>41626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>846</v>
+        <v>596</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10561,13 +10513,13 @@
         <v>113709</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
@@ -10576,13 +10528,13 @@
         <v>205493</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>147</v>
+        <v>833</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -10591,13 +10543,13 @@
         <v>319202</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10653,7 +10605,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10665,13 +10617,13 @@
         <v>2973</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>841</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -10680,13 +10632,13 @@
         <v>8856</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>858</v>
+        <v>462</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>547</v>
+        <v>843</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -10695,13 +10647,13 @@
         <v>11829</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>156</v>
+        <v>372</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>594</v>
+        <v>844</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10716,13 +10668,13 @@
         <v>12473</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="H33" s="7">
         <v>73</v>
@@ -10731,13 +10683,13 @@
         <v>49675</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="M33" s="7">
         <v>90</v>
@@ -10746,13 +10698,13 @@
         <v>62148</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>868</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10767,13 +10719,13 @@
         <v>153788</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="H34" s="7">
         <v>258</v>
@@ -10782,13 +10734,13 @@
         <v>164512</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="M34" s="7">
         <v>470</v>
@@ -10797,13 +10749,13 @@
         <v>318299</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10871,13 +10823,13 @@
         <v>51502</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>879</v>
+        <v>644</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H36" s="7">
         <v>199</v>
@@ -10886,13 +10838,13 @@
         <v>109857</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="M36" s="7">
         <v>285</v>
@@ -10901,13 +10853,13 @@
         <v>161359</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10922,13 +10874,13 @@
         <v>89723</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>887</v>
+        <v>410</v>
       </c>
       <c r="H37" s="7">
         <v>383</v>
@@ -10937,13 +10889,13 @@
         <v>206256</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>614</v>
+        <v>871</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="M37" s="7">
         <v>521</v>
@@ -10952,13 +10904,13 @@
         <v>295979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10973,13 +10925,13 @@
         <v>554248</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>681</v>
+        <v>877</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="H38" s="7">
         <v>1124</v>
@@ -10988,13 +10940,13 @@
         <v>709478</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="M38" s="7">
         <v>1925</v>
@@ -11003,13 +10955,13 @@
         <v>1263725</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11065,7 +11017,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3AA2AD6-CC7A-457F-ACD8-BE813C5B991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F92E06C-1124-467E-ABE4-70EF7142D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BA3286B-38D0-41B5-B486-0C9065476C91}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC963A8F-7EDD-4BA5-AA20-E0897FC70ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="876">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,2620 +80,2593 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,96%</t>
+    <t>11,52%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>19,13%</t>
+    <t>18,29%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>77,06%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>79,01%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
 </sst>
 </file>
@@ -3105,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3AE846-C31F-4D3B-9051-06C4C1CCFF1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F67856-C5CD-4BC6-946E-087E4581B66D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4480,13 +4453,13 @@
         <v>6805</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -4495,13 +4468,13 @@
         <v>9415</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4489,13 @@
         <v>13397</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -4531,13 +4504,13 @@
         <v>29186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -4546,13 +4519,13 @@
         <v>42583</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4540,13 @@
         <v>89921</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>83</v>
@@ -4582,13 +4555,13 @@
         <v>81130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>174</v>
@@ -4597,13 +4570,13 @@
         <v>171051</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4632,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4671,13 +4644,13 @@
         <v>7598</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4686,13 +4659,13 @@
         <v>9395</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -4701,13 +4674,13 @@
         <v>16993</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4695,13 @@
         <v>23202</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H33" s="7">
         <v>30</v>
@@ -4737,13 +4710,13 @@
         <v>33534</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -4752,13 +4725,13 @@
         <v>56736</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4746,13 @@
         <v>81093</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>106</v>
@@ -4788,13 +4761,13 @@
         <v>110297</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>190</v>
@@ -4803,13 +4776,13 @@
         <v>191390</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4850,13 @@
         <v>29806</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -4892,13 +4865,13 @@
         <v>48960</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -4907,13 +4880,13 @@
         <v>78766</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4901,13 @@
         <v>84223</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>146</v>
@@ -4943,13 +4916,13 @@
         <v>157952</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>234</v>
@@ -4958,13 +4931,13 @@
         <v>242175</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4952,13 @@
         <v>388438</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>469</v>
@@ -4994,13 +4967,13 @@
         <v>469930</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M38" s="7">
         <v>872</v>
@@ -5009,13 +4982,13 @@
         <v>858368</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,7 +5044,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5095,7 +5068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D3E4DF-8B49-4A26-AF65-3B75B427AA45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5564B-D2F9-43C3-BC8A-884E5E20EF98}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5112,7 +5085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5217,39 +5190,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,39 +5235,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,39 +5280,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,39 +5325,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5374,13 @@
         <v>10644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5416,13 +5389,13 @@
         <v>17522</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5431,13 +5404,13 @@
         <v>28166</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5425,13 @@
         <v>12875</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5467,13 +5440,13 @@
         <v>22677</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -5482,13 +5455,13 @@
         <v>35552</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5476,13 @@
         <v>55685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5518,13 +5491,13 @@
         <v>61894</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -5533,13 +5506,13 @@
         <v>117578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5580,13 @@
         <v>7170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5622,13 +5595,13 @@
         <v>9821</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -5637,13 +5610,13 @@
         <v>16991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,10 +5634,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5673,13 +5646,13 @@
         <v>13514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5688,13 +5661,13 @@
         <v>17609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5682,13 @@
         <v>44477</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -5724,13 +5697,13 @@
         <v>56634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5739,13 +5712,13 @@
         <v>101110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5786,13 @@
         <v>9499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5828,13 +5801,13 @@
         <v>21387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -5843,13 +5816,13 @@
         <v>30887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5837,13 @@
         <v>25331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5879,13 +5852,13 @@
         <v>40282</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5894,13 +5867,13 @@
         <v>65614</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5888,13 @@
         <v>73477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>328</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H18" s="7">
         <v>70</v>
@@ -5930,13 +5903,13 @@
         <v>72798</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -5945,13 +5918,13 @@
         <v>146276</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +5992,13 @@
         <v>3292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6034,13 +6007,13 @@
         <v>7412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -6049,13 +6022,13 @@
         <v>10703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6043,13 @@
         <v>5683</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -6085,13 +6058,13 @@
         <v>15549</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -6100,13 +6073,13 @@
         <v>21232</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6094,13 @@
         <v>22637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -6136,13 +6109,13 @@
         <v>26894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -6151,13 +6124,13 @@
         <v>49531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6198,13 @@
         <v>8600</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>362</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6240,13 +6213,13 @@
         <v>11800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -6255,13 +6228,13 @@
         <v>20400</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6249,13 @@
         <v>6333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>369</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6291,10 +6264,10 @@
         <v>5387</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>373</v>
@@ -6306,10 +6279,10 @@
         <v>11720</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>375</v>
@@ -6333,7 +6306,7 @@
         <v>377</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -6342,13 +6315,13 @@
         <v>53025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -6357,13 +6330,13 @@
         <v>89848</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6404,13 @@
         <v>11372</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -6446,13 +6419,13 @@
         <v>11917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>386</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6461,13 +6434,13 @@
         <v>23288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6455,13 @@
         <v>15009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6497,13 +6470,13 @@
         <v>26711</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -6512,13 +6485,13 @@
         <v>41720</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6506,13 @@
         <v>85882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H30" s="7">
         <v>95</v>
@@ -6548,13 +6521,13 @@
         <v>103335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -6563,13 +6536,13 @@
         <v>189217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,7 +6598,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6637,13 +6610,13 @@
         <v>4354</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>72</v>
+        <v>410</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6652,13 +6625,13 @@
         <v>15748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -6667,13 +6640,13 @@
         <v>20102</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6661,13 @@
         <v>14381</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>414</v>
+        <v>339</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -6703,13 +6676,13 @@
         <v>28690</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M33" s="7">
         <v>37</v>
@@ -6718,13 +6691,13 @@
         <v>43071</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>126</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6712,13 @@
         <v>102017</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -6754,13 +6727,13 @@
         <v>119979</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>425</v>
+        <v>59</v>
       </c>
       <c r="M34" s="7">
         <v>202</v>
@@ -6769,13 +6742,13 @@
         <v>221995</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6816,13 @@
         <v>54930</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>186</v>
+        <v>434</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -6858,13 +6831,13 @@
         <v>95607</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>262</v>
+        <v>437</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M36" s="7">
         <v>135</v>
@@ -6873,13 +6846,13 @@
         <v>150537</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6867,13 @@
         <v>83709</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H37" s="7">
         <v>143</v>
@@ -6909,13 +6882,13 @@
         <v>152810</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M37" s="7">
         <v>216</v>
@@ -6924,13 +6897,13 @@
         <v>236520</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6918,13 @@
         <v>420997</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H38" s="7">
         <v>465</v>
@@ -6963,10 +6936,10 @@
         <v>145</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M38" s="7">
         <v>847</v>
@@ -6975,13 +6948,13 @@
         <v>915555</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,7 +7010,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -7061,7 +7034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19D1AF5-69E8-44E4-92F9-65AF086E8C54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F021F-94B3-44D4-A13A-4C6815A687D1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7078,7 +7051,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7185,13 +7158,13 @@
         <v>4871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7200,13 +7173,13 @@
         <v>4514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>457</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -7215,13 +7188,13 @@
         <v>9385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>459</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7209,13 @@
         <v>4127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>463</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7251,13 +7224,13 @@
         <v>15747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -7266,13 +7239,13 @@
         <v>19874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>467</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,10 +7263,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -7302,28 +7275,28 @@
         <v>29130</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>59027</v>
+        <v>59028</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,7 +7338,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -7391,13 +7364,13 @@
         <v>4143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7406,13 +7379,13 @@
         <v>10421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>481</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -7421,13 +7394,13 @@
         <v>14564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,13 +7415,13 @@
         <v>7726</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>489</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -7457,13 +7430,13 @@
         <v>23298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>105</v>
+        <v>492</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>489</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -7472,13 +7445,13 @@
         <v>31024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,13 +7466,13 @@
         <v>75426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>497</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7508,13 +7481,13 @@
         <v>81509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -7523,13 +7496,13 @@
         <v>156935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,13 +7570,13 @@
         <v>2770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7612,13 +7585,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7627,13 +7600,13 @@
         <v>7248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,13 +7621,13 @@
         <v>10362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -7663,13 +7636,13 @@
         <v>8029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>516</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -7681,10 +7654,10 @@
         <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>514</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,13 +7672,13 @@
         <v>50414</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>516</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -7714,13 +7687,13 @@
         <v>67390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -7729,13 +7702,13 @@
         <v>117805</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7776,13 @@
         <v>5865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7818,13 +7791,13 @@
         <v>2571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>366</v>
+        <v>530</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -7833,13 +7806,13 @@
         <v>8436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>531</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,13 +7827,13 @@
         <v>8093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -7872,10 +7845,10 @@
         <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>537</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7884,13 +7857,13 @@
         <v>31648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +7878,13 @@
         <v>50754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -7920,13 +7893,13 @@
         <v>65448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -7935,13 +7908,13 @@
         <v>116201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8012,10 +7985,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>551</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -8024,13 +7997,13 @@
         <v>3426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>349</v>
+        <v>554</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -8039,13 +8012,13 @@
         <v>3426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8060,13 +8033,13 @@
         <v>4932</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -8075,13 +8048,13 @@
         <v>14756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -8090,13 +8063,13 @@
         <v>19688</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,13 +8084,13 @@
         <v>37148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8126,13 +8099,13 @@
         <v>32350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>565</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -8141,13 +8114,13 @@
         <v>69499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8188,13 @@
         <v>10000</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>464</v>
+        <v>573</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8230,13 +8203,13 @@
         <v>9590</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -8245,13 +8218,13 @@
         <v>19590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>577</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8266,13 +8239,13 @@
         <v>3316</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8281,13 +8254,13 @@
         <v>9272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>582</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>581</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -8296,13 +8269,13 @@
         <v>12588</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>585</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,13 +8290,13 @@
         <v>35129</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -8332,13 +8305,13 @@
         <v>48527</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -8347,13 +8320,13 @@
         <v>83656</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8421,13 +8394,13 @@
         <v>9310</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -8436,13 +8409,13 @@
         <v>11094</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>599</v>
+        <v>551</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -8451,13 +8424,13 @@
         <v>20404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8472,13 +8445,13 @@
         <v>16382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>41</v>
+        <v>602</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>605</v>
+        <v>269</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -8487,13 +8460,13 @@
         <v>38363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -8502,13 +8475,13 @@
         <v>54745</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,13 +8496,13 @@
         <v>86493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H30" s="7">
         <v>84</v>
@@ -8538,13 +8511,13 @@
         <v>98168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -8553,13 +8526,13 @@
         <v>184661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,7 +8588,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8627,13 +8600,13 @@
         <v>8922</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8642,13 +8615,13 @@
         <v>4013</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>624</v>
+        <v>463</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8657,13 +8630,13 @@
         <v>12935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>453</v>
+        <v>622</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8678,13 +8651,13 @@
         <v>12404</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -8693,13 +8666,13 @@
         <v>50362</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="M33" s="7">
         <v>51</v>
@@ -8708,13 +8681,13 @@
         <v>62766</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8729,13 +8702,13 @@
         <v>112842</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="H34" s="7">
         <v>101</v>
@@ -8744,13 +8717,13 @@
         <v>121921</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>637</v>
+        <v>63</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="M34" s="7">
         <v>220</v>
@@ -8759,13 +8732,13 @@
         <v>234763</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8833,13 +8806,13 @@
         <v>45882</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H36" s="7">
         <v>39</v>
@@ -8848,13 +8821,13 @@
         <v>50105</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M36" s="7">
         <v>90</v>
@@ -8863,13 +8836,13 @@
         <v>95987</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8884,13 +8857,13 @@
         <v>67342</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H37" s="7">
         <v>146</v>
@@ -8899,13 +8872,13 @@
         <v>183381</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>655</v>
       </c>
       <c r="M37" s="7">
         <v>221</v>
@@ -8914,13 +8887,13 @@
         <v>250723</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8935,13 +8908,13 @@
         <v>478104</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="H38" s="7">
         <v>470</v>
@@ -8950,13 +8923,13 @@
         <v>544444</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="M38" s="7">
         <v>971</v>
@@ -8965,13 +8938,13 @@
         <v>1022548</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9027,7 +9000,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -9051,7 +9024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC2F05D-FDA6-42E9-BA9F-E522A35C8985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A1FE3A-C7A7-4D6E-9AE6-3866DDBD7DF6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9178,10 +9151,10 @@
         <v>668</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>669</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -9190,7 +9163,7 @@
         <v>9475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>670</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>671</v>
@@ -9211,7 +9184,7 @@
         <v>674</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>675</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9226,13 +9199,13 @@
         <v>19909</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -9241,13 +9214,13 @@
         <v>20053</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>680</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -9256,13 +9229,13 @@
         <v>39963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9277,13 +9250,13 @@
         <v>27405</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>122</v>
+        <v>686</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
@@ -9292,13 +9265,13 @@
         <v>32691</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M6" s="7">
         <v>116</v>
@@ -9307,13 +9280,13 @@
         <v>60096</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9381,13 +9354,13 @@
         <v>7383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>691</v>
+        <v>645</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -9396,13 +9369,13 @@
         <v>21555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -9411,13 +9384,13 @@
         <v>28938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9432,13 +9405,13 @@
         <v>6505</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>699</v>
+        <v>190</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
@@ -9447,13 +9420,13 @@
         <v>34198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -9462,13 +9435,13 @@
         <v>40703</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>707</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9501,10 +9474,10 @@
         <v>711</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>713</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -9513,13 +9486,13 @@
         <v>158030</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>715</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>716</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9587,13 +9560,13 @@
         <v>15830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>717</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -9605,10 +9578,10 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -9617,13 +9590,13 @@
         <v>34069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9638,13 +9611,13 @@
         <v>7275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -9653,13 +9626,13 @@
         <v>22651</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>729</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -9668,13 +9641,13 @@
         <v>29925</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9689,13 +9662,13 @@
         <v>54497</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -9704,13 +9677,13 @@
         <v>53450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
@@ -9719,13 +9692,13 @@
         <v>107947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9793,13 +9766,13 @@
         <v>3202</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>742</v>
+        <v>693</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -9808,13 +9781,13 @@
         <v>10057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>584</v>
+        <v>742</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -9823,13 +9796,13 @@
         <v>13259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9844,13 +9817,13 @@
         <v>14340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>751</v>
+        <v>576</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -9859,13 +9832,13 @@
         <v>23620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -9874,13 +9847,13 @@
         <v>37960</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>752</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9895,13 +9868,13 @@
         <v>61263</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H18" s="7">
         <v>179</v>
@@ -9910,13 +9883,13 @@
         <v>76778</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M18" s="7">
         <v>270</v>
@@ -9925,13 +9898,13 @@
         <v>138041</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>635</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,13 +9972,13 @@
         <v>1758</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>765</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -10014,13 +9987,13 @@
         <v>2132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>765</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -10029,13 +10002,13 @@
         <v>3891</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,13 +10023,13 @@
         <v>5271</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>772</v>
+        <v>242</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -10065,13 +10038,13 @@
         <v>13143</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>189</v>
+        <v>772</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -10080,13 +10053,13 @@
         <v>18414</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>777</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10101,13 +10074,13 @@
         <v>31302</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>780</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>782</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -10116,13 +10089,13 @@
         <v>50205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>784</v>
+        <v>713</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -10131,13 +10104,13 @@
         <v>81507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,13 +10178,13 @@
         <v>12650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -10220,13 +10193,13 @@
         <v>14543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -10235,13 +10208,13 @@
         <v>27193</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10256,13 +10229,13 @@
         <v>10676</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -10271,13 +10244,13 @@
         <v>14565</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -10286,13 +10259,13 @@
         <v>25241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10307,13 +10280,13 @@
         <v>39857</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>808</v>
+        <v>204</v>
       </c>
       <c r="H26" s="7">
         <v>97</v>
@@ -10322,13 +10295,13 @@
         <v>40746</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>805</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="M26" s="7">
         <v>180</v>
@@ -10337,13 +10310,13 @@
         <v>80603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10411,13 +10384,13 @@
         <v>3100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -10426,13 +10399,13 @@
         <v>25000</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>818</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -10441,13 +10414,13 @@
         <v>28100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10462,13 +10435,13 @@
         <v>13276</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -10477,13 +10450,13 @@
         <v>28350</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -10492,13 +10465,13 @@
         <v>41626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>596</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10513,13 +10486,13 @@
         <v>113709</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
@@ -10528,13 +10501,13 @@
         <v>205493</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -10543,13 +10516,13 @@
         <v>319202</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10605,7 +10578,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10617,13 +10590,13 @@
         <v>2973</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>841</v>
+        <v>16</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -10632,13 +10605,13 @@
         <v>8856</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>462</v>
+        <v>835</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>843</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -10647,13 +10620,13 @@
         <v>11829</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>844</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10668,13 +10641,13 @@
         <v>12473</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>771</v>
+        <v>838</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>847</v>
+        <v>696</v>
       </c>
       <c r="H33" s="7">
         <v>73</v>
@@ -10683,13 +10656,13 @@
         <v>49675</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="M33" s="7">
         <v>90</v>
@@ -10698,13 +10671,13 @@
         <v>62148</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>346</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10719,13 +10692,13 @@
         <v>153788</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="H34" s="7">
         <v>258</v>
@@ -10734,13 +10707,13 @@
         <v>164512</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="M34" s="7">
         <v>470</v>
@@ -10749,13 +10722,13 @@
         <v>318299</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10823,13 +10796,13 @@
         <v>51502</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>644</v>
+        <v>856</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="H36" s="7">
         <v>199</v>
@@ -10838,13 +10811,13 @@
         <v>109857</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>695</v>
+        <v>857</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="M36" s="7">
         <v>285</v>
@@ -10853,13 +10826,13 @@
         <v>161359</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>867</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10874,13 +10847,13 @@
         <v>89723</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>868</v>
+        <v>743</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>869</v>
+        <v>482</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>410</v>
+        <v>862</v>
       </c>
       <c r="H37" s="7">
         <v>383</v>
@@ -10889,13 +10862,13 @@
         <v>206256</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="M37" s="7">
         <v>521</v>
@@ -10904,13 +10877,13 @@
         <v>295979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10925,13 +10898,13 @@
         <v>554248</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>878</v>
+        <v>830</v>
       </c>
       <c r="H38" s="7">
         <v>1124</v>
@@ -10940,13 +10913,13 @@
         <v>709478</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>880</v>
+        <v>122</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="M38" s="7">
         <v>1925</v>
@@ -10955,13 +10928,13 @@
         <v>1263725</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11017,7 +10990,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F92E06C-1124-467E-ABE4-70EF7142D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{838EECD4-636C-4004-86A5-1B5823D984EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC963A8F-7EDD-4BA5-AA20-E0897FC70ECC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AE59C31A-F6AF-4E6C-8209-38D9B9DC68C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="902">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -824,7 +824,85 @@
     <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>13,44%</t>
@@ -968,558 +1046,555 @@
     <t>81,33%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
     <t>15,32%</t>
   </si>
   <si>
@@ -1625,9 +1700,6 @@
     <t>3,95%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
     <t>2,81%</t>
   </si>
   <si>
@@ -2045,628 +2117,634 @@
     <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
 </sst>
 </file>
@@ -3078,7 +3156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F67856-C5CD-4BC6-946E-087E4581B66D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D121C9F4-7DB0-4A1A-B2F8-DFB86BF30163}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5068,7 +5146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5564B-D2F9-43C3-BC8A-884E5E20EF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D45D78-BD69-4B1C-9D2D-28523E2E8E59}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5186,43 +5264,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3016</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10633</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13649</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,43 +5315,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10531</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16766</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N5" s="7">
+        <v>27296</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,43 +5366,49 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <v>30735</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I6" s="7">
+        <v>21495</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="N6" s="7">
+        <v>52230</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,43 +5417,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5476,13 @@
         <v>10644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5389,13 +5491,13 @@
         <v>17522</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5404,13 +5506,13 @@
         <v>28166</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5527,13 @@
         <v>12875</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -5440,13 +5542,13 @@
         <v>22677</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -5455,13 +5557,13 @@
         <v>35552</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5578,13 @@
         <v>55685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5491,13 +5593,13 @@
         <v>61894</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -5506,13 +5608,13 @@
         <v>117578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5682,13 @@
         <v>7170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5595,7 +5697,7 @@
         <v>9821</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>69</v>
@@ -5610,10 +5712,10 @@
         <v>16991</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>85</v>
@@ -5634,10 +5736,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5646,13 +5748,13 @@
         <v>13514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5661,13 +5763,13 @@
         <v>17609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5784,13 @@
         <v>44477</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -5697,10 +5799,10 @@
         <v>56634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>252</v>
@@ -5712,13 +5814,13 @@
         <v>101110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,49 +5882,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>9499</v>
+        <v>6483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>21387</v>
+        <v>10754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>30887</v>
+        <v>17238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,49 +5933,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>25331</v>
+        <v>14801</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>40282</v>
+        <v>23516</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>65614</v>
+        <v>38318</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,49 +5984,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7">
-        <v>73477</v>
+        <v>42743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I18" s="7">
-        <v>72798</v>
+        <v>51303</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="M18" s="7">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="N18" s="7">
-        <v>146276</v>
+        <v>94047</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,10 +6035,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5948,10 +6050,10 @@
         <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5963,10 +6065,10 @@
         <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -5992,13 +6094,13 @@
         <v>3292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6007,13 +6109,13 @@
         <v>7412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -6022,13 +6124,13 @@
         <v>10703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6145,13 @@
         <v>5683</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -6058,13 +6160,13 @@
         <v>15549</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -6073,13 +6175,13 @@
         <v>21232</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6196,13 @@
         <v>22637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -6109,10 +6211,10 @@
         <v>26894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>116</v>
@@ -6124,13 +6226,13 @@
         <v>49531</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6300,13 @@
         <v>8600</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6213,13 +6315,13 @@
         <v>11800</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -6228,13 +6330,13 @@
         <v>20400</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6351,13 @@
         <v>6333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6264,13 +6366,13 @@
         <v>5387</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6282,10 +6384,10 @@
         <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6402,13 @@
         <v>36822</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -6315,13 +6417,13 @@
         <v>53025</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -6330,13 +6432,13 @@
         <v>89848</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6506,13 @@
         <v>11372</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -6419,13 +6521,13 @@
         <v>11917</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -6434,13 +6536,13 @@
         <v>23288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6557,13 @@
         <v>15009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -6470,13 +6572,13 @@
         <v>26711</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -6485,13 +6587,13 @@
         <v>41720</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6608,13 @@
         <v>85882</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="H30" s="7">
         <v>95</v>
@@ -6524,10 +6626,10 @@
         <v>256</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -6536,13 +6638,13 @@
         <v>189217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6712,13 @@
         <v>4354</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -6625,13 +6727,13 @@
         <v>15748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -6640,13 +6742,13 @@
         <v>20102</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6763,13 @@
         <v>14381</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>418</v>
+        <v>264</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -6676,13 +6778,13 @@
         <v>28690</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="M33" s="7">
         <v>37</v>
@@ -6691,13 +6793,13 @@
         <v>43071</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6814,13 @@
         <v>102017</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -6727,10 +6829,10 @@
         <v>119979</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>59</v>
@@ -6742,13 +6844,13 @@
         <v>221995</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6918,13 @@
         <v>54930</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -6831,13 +6933,13 @@
         <v>95607</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="M36" s="7">
         <v>135</v>
@@ -6846,13 +6948,13 @@
         <v>150537</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6969,13 @@
         <v>83709</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="H37" s="7">
         <v>143</v>
@@ -6882,13 +6984,13 @@
         <v>152810</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="M37" s="7">
         <v>216</v>
@@ -6897,13 +6999,13 @@
         <v>236520</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +7020,13 @@
         <v>420997</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="H38" s="7">
         <v>465</v>
@@ -6936,10 +7038,10 @@
         <v>145</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="M38" s="7">
         <v>847</v>
@@ -6948,13 +7050,13 @@
         <v>915555</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,7 +7136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F021F-94B3-44D4-A13A-4C6815A687D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AE76DC-1EE5-4C9A-AC02-7EBB5C8579A1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7051,7 +7153,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7158,13 +7260,13 @@
         <v>4871</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7173,10 +7275,10 @@
         <v>4514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>191</v>
@@ -7188,13 +7290,13 @@
         <v>9385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7311,13 @@
         <v>4127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>491</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7224,13 +7326,13 @@
         <v>15747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -7239,13 +7341,13 @@
         <v>19874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,10 +7365,10 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -7275,13 +7377,13 @@
         <v>29130</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -7290,13 +7392,13 @@
         <v>59028</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7466,13 @@
         <v>4143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7379,13 +7481,13 @@
         <v>10421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -7394,13 +7496,13 @@
         <v>14564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7517,13 @@
         <v>7726</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -7430,13 +7532,13 @@
         <v>23298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>321</v>
+        <v>517</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -7445,13 +7547,13 @@
         <v>31024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7568,13 @@
         <v>75426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7481,13 +7583,13 @@
         <v>81509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -7496,13 +7598,13 @@
         <v>156935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7672,13 @@
         <v>2770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7585,13 +7687,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7600,13 +7702,13 @@
         <v>7248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7723,13 @@
         <v>10362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -7636,7 +7738,7 @@
         <v>8029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>16</v>
@@ -7657,7 +7759,7 @@
         <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7774,13 @@
         <v>50414</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -7687,13 +7789,13 @@
         <v>67390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -7702,13 +7804,13 @@
         <v>117805</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,13 +7878,13 @@
         <v>5865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7791,13 +7893,13 @@
         <v>2571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -7806,13 +7908,13 @@
         <v>8436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,13 +7929,13 @@
         <v>8093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -7845,10 +7947,10 @@
         <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7857,13 +7959,13 @@
         <v>31648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,13 +7980,13 @@
         <v>50754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -7893,13 +7995,13 @@
         <v>65448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -7908,13 +8010,13 @@
         <v>116201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,10 +8087,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7997,13 +8099,13 @@
         <v>3426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -8012,13 +8114,13 @@
         <v>3426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8135,13 @@
         <v>4932</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -8048,13 +8150,13 @@
         <v>14756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="M21" s="7">
         <v>19</v>
@@ -8063,13 +8165,13 @@
         <v>19688</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8186,13 @@
         <v>37148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8099,13 +8201,13 @@
         <v>32350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -8114,13 +8216,13 @@
         <v>69499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8290,13 @@
         <v>10000</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8203,13 +8305,13 @@
         <v>9590</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -8218,10 +8320,10 @@
         <v>19590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>192</v>
@@ -8239,13 +8341,13 @@
         <v>3316</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -8254,13 +8356,13 @@
         <v>9272</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -8269,10 +8371,10 @@
         <v>12588</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -8290,13 +8392,13 @@
         <v>35129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -8305,13 +8407,13 @@
         <v>48527</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -8320,13 +8422,13 @@
         <v>83656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8496,13 @@
         <v>9310</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -8409,13 +8511,13 @@
         <v>11094</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -8424,13 +8526,13 @@
         <v>20404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,13 +8547,13 @@
         <v>16382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -8460,13 +8562,13 @@
         <v>38363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -8475,13 +8577,13 @@
         <v>54745</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8496,13 +8598,13 @@
         <v>86493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="H30" s="7">
         <v>84</v>
@@ -8511,13 +8613,13 @@
         <v>98168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -8526,13 +8628,13 @@
         <v>184661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,13 +8702,13 @@
         <v>8922</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -8615,10 +8717,10 @@
         <v>4013</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>134</v>
@@ -8630,13 +8732,13 @@
         <v>12935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,13 +8753,13 @@
         <v>12404</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -8666,13 +8768,13 @@
         <v>50362</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="M33" s="7">
         <v>51</v>
@@ -8681,13 +8783,13 @@
         <v>62766</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8702,13 +8804,13 @@
         <v>112842</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="H34" s="7">
         <v>101</v>
@@ -8720,10 +8822,10 @@
         <v>63</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="M34" s="7">
         <v>220</v>
@@ -8732,13 +8834,13 @@
         <v>234763</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,13 +8908,13 @@
         <v>45882</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="H36" s="7">
         <v>39</v>
@@ -8821,13 +8923,13 @@
         <v>50105</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="M36" s="7">
         <v>90</v>
@@ -8836,13 +8938,13 @@
         <v>95987</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,13 +8959,13 @@
         <v>67342</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="H37" s="7">
         <v>146</v>
@@ -8872,13 +8974,13 @@
         <v>183381</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="M37" s="7">
         <v>221</v>
@@ -8887,13 +8989,13 @@
         <v>250723</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8908,13 +9010,13 @@
         <v>478104</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="H38" s="7">
         <v>470</v>
@@ -8923,13 +9025,13 @@
         <v>544444</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="M38" s="7">
         <v>971</v>
@@ -8938,13 +9040,13 @@
         <v>1022548</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9024,7 +9126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A1FE3A-C7A7-4D6E-9AE6-3866DDBD7DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29428B01-26FA-4D4F-8B44-74E46E0361A3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9041,7 +9143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9145,46 +9247,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>4606</v>
+        <v>4910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>9475</v>
+        <v>9529</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>695</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>14080</v>
+        <v>14439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>673</v>
+        <v>624</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9196,46 +9298,46 @@
         <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>19909</v>
+        <v>21337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>20053</v>
+        <v>20362</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
       </c>
       <c r="N5" s="7">
-        <v>39963</v>
+        <v>41699</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9247,46 +9349,46 @@
         <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>27405</v>
+        <v>29654</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="H6" s="7">
         <v>72</v>
       </c>
       <c r="I6" s="7">
-        <v>32691</v>
+        <v>33518</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="M6" s="7">
         <v>116</v>
       </c>
       <c r="N6" s="7">
-        <v>60096</v>
+        <v>63172</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9298,7 +9400,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -9313,7 +9415,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -9328,7 +9430,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -9351,46 +9453,46 @@
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>7383</v>
+        <v>6870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>645</v>
+        <v>717</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>21555</v>
+        <v>19192</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>28938</v>
+        <v>26062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9402,46 +9504,46 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>6505</v>
+        <v>6035</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>190</v>
+        <v>726</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
       </c>
       <c r="I9" s="7">
-        <v>34198</v>
+        <v>31150</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
       </c>
       <c r="N9" s="7">
-        <v>40703</v>
+        <v>37185</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>707</v>
+        <v>494</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9453,46 +9555,46 @@
         <v>80</v>
       </c>
       <c r="D10" s="7">
-        <v>72427</v>
+        <v>67803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="H10" s="7">
         <v>137</v>
       </c>
       <c r="I10" s="7">
-        <v>85603</v>
+        <v>78650</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>737</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
       </c>
       <c r="N10" s="7">
-        <v>158030</v>
+        <v>146453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>614</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9504,7 +9606,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -9519,7 +9621,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -9534,7 +9636,7 @@
         <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -9557,46 +9659,46 @@
         <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>15830</v>
+        <v>14866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>191</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>18239</v>
+        <v>16570</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>744</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
       </c>
       <c r="N12" s="7">
-        <v>34069</v>
+        <v>31436</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,46 +9710,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>7275</v>
+        <v>6773</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>723</v>
+        <v>668</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>22651</v>
+        <v>20688</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>753</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>29925</v>
+        <v>27461</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>728</v>
+        <v>458</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9659,46 +9761,46 @@
         <v>86</v>
       </c>
       <c r="D14" s="7">
-        <v>54497</v>
+        <v>51851</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>53450</v>
+        <v>49601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="M14" s="7">
         <v>180</v>
       </c>
       <c r="N14" s="7">
-        <v>107947</v>
+        <v>101452</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9710,7 +9812,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -9725,7 +9827,7 @@
         <v>168</v>
       </c>
       <c r="I15" s="7">
-        <v>94340</v>
+        <v>86859</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -9740,7 +9842,7 @@
         <v>290</v>
       </c>
       <c r="N15" s="7">
-        <v>171941</v>
+        <v>160349</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -9763,46 +9865,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3202</v>
+        <v>3036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>693</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>10057</v>
+        <v>9363</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>13259</v>
+        <v>12399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>646</v>
+        <v>771</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>745</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9814,46 +9916,46 @@
         <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>14340</v>
+        <v>13510</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>576</v>
+        <v>775</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
       </c>
       <c r="I17" s="7">
-        <v>23620</v>
+        <v>22077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>749</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
       </c>
       <c r="N17" s="7">
-        <v>37960</v>
+        <v>35586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>752</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9865,46 +9967,46 @@
         <v>91</v>
       </c>
       <c r="D18" s="7">
-        <v>61263</v>
+        <v>58122</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="H18" s="7">
         <v>179</v>
       </c>
       <c r="I18" s="7">
-        <v>76778</v>
+        <v>72197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="M18" s="7">
         <v>270</v>
       </c>
       <c r="N18" s="7">
-        <v>138041</v>
+        <v>130318</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9916,7 +10018,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -9931,7 +10033,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -9946,7 +10048,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -9969,46 +10071,46 @@
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>1758</v>
+        <v>1567</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>789</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>764</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>2132</v>
+        <v>1899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>765</v>
+        <v>727</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>766</v>
+        <v>791</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>648</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>3891</v>
+        <v>3466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>769</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10020,46 +10122,46 @@
         <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>5271</v>
+        <v>4810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>242</v>
+        <v>794</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>13143</v>
+        <v>11728</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>772</v>
+        <v>797</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>773</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>774</v>
+        <v>798</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
       </c>
       <c r="N21" s="7">
-        <v>18414</v>
+        <v>16537</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>775</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>776</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10071,46 +10173,46 @@
         <v>58</v>
       </c>
       <c r="D22" s="7">
-        <v>31302</v>
+        <v>28439</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
       </c>
       <c r="I22" s="7">
-        <v>50205</v>
+        <v>45619</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>713</v>
+        <v>804</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
       </c>
       <c r="N22" s="7">
-        <v>81507</v>
+        <v>74059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>783</v>
+        <v>806</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10122,7 +10224,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -10137,7 +10239,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -10152,7 +10254,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -10175,46 +10277,46 @@
         <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>12650</v>
+        <v>12033</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
       </c>
       <c r="I24" s="7">
-        <v>14543</v>
+        <v>13593</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>791</v>
+        <v>814</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
       </c>
       <c r="N24" s="7">
-        <v>27193</v>
+        <v>25626</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>792</v>
+        <v>815</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10226,46 +10328,46 @@
         <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>10676</v>
+        <v>10203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>818</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
       </c>
       <c r="I25" s="7">
-        <v>14565</v>
+        <v>13667</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
       </c>
       <c r="N25" s="7">
-        <v>25241</v>
+        <v>23870</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>725</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10277,13 +10379,13 @@
         <v>83</v>
       </c>
       <c r="D26" s="7">
-        <v>39857</v>
+        <v>38025</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>204</v>
@@ -10292,31 +10394,31 @@
         <v>97</v>
       </c>
       <c r="I26" s="7">
-        <v>40746</v>
+        <v>37998</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="M26" s="7">
         <v>180</v>
       </c>
       <c r="N26" s="7">
-        <v>80603</v>
+        <v>76023</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10328,7 +10430,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -10343,7 +10445,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -10358,7 +10460,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -10381,46 +10483,46 @@
         <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>3100</v>
+        <v>2951</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
       </c>
       <c r="I28" s="7">
-        <v>25000</v>
+        <v>21758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>813</v>
+        <v>213</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>837</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>814</v>
+        <v>838</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
       </c>
       <c r="N28" s="7">
-        <v>28100</v>
+        <v>24709</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>235</v>
+        <v>839</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10432,46 +10534,46 @@
         <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>13276</v>
+        <v>12243</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
       </c>
       <c r="I29" s="7">
-        <v>28350</v>
+        <v>25826</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>482</v>
+        <v>844</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>821</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
       </c>
       <c r="N29" s="7">
-        <v>41626</v>
+        <v>38069</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>48</v>
+        <v>847</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10483,46 +10585,46 @@
         <v>147</v>
       </c>
       <c r="D30" s="7">
-        <v>113709</v>
+        <v>107345</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>825</v>
+        <v>334</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
       </c>
       <c r="I30" s="7">
-        <v>205493</v>
+        <v>291599</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>827</v>
+        <v>64</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
       </c>
       <c r="N30" s="7">
-        <v>319202</v>
+        <v>398943</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>830</v>
+        <v>521</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10534,7 +10636,7 @@
         <v>167</v>
       </c>
       <c r="D31" s="7">
-        <v>130085</v>
+        <v>122539</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>39</v>
@@ -10549,7 +10651,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>39</v>
@@ -10564,7 +10666,7 @@
         <v>409</v>
       </c>
       <c r="N31" s="7">
-        <v>388928</v>
+        <v>461720</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -10587,46 +10689,46 @@
         <v>5</v>
       </c>
       <c r="D32" s="7">
-        <v>2973</v>
+        <v>2614</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>16</v>
+        <v>789</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
       </c>
       <c r="I32" s="7">
-        <v>8856</v>
+        <v>7121</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>859</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
       </c>
       <c r="N32" s="7">
-        <v>11829</v>
+        <v>9735</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>156</v>
+        <v>860</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>294</v>
+        <v>861</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10638,46 +10740,46 @@
         <v>17</v>
       </c>
       <c r="D33" s="7">
-        <v>12473</v>
+        <v>10590</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>838</v>
+        <v>235</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>696</v>
+        <v>864</v>
       </c>
       <c r="H33" s="7">
         <v>73</v>
       </c>
       <c r="I33" s="7">
-        <v>49675</v>
+        <v>40402</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>841</v>
+        <v>866</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="M33" s="7">
         <v>90</v>
       </c>
       <c r="N33" s="7">
-        <v>62148</v>
+        <v>50991</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10689,46 +10791,46 @@
         <v>212</v>
       </c>
       <c r="D34" s="7">
-        <v>153788</v>
+        <v>133272</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>848</v>
+        <v>873</v>
       </c>
       <c r="H34" s="7">
         <v>258</v>
       </c>
       <c r="I34" s="7">
-        <v>164512</v>
+        <v>139119</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>849</v>
+        <v>874</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>851</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>470</v>
       </c>
       <c r="N34" s="7">
-        <v>318299</v>
+        <v>272391</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10740,7 +10842,7 @@
         <v>234</v>
       </c>
       <c r="D35" s="7">
-        <v>169234</v>
+        <v>146475</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>39</v>
@@ -10755,7 +10857,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>39</v>
@@ -10770,7 +10872,7 @@
         <v>577</v>
       </c>
       <c r="N35" s="7">
-        <v>392277</v>
+        <v>333117</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>39</v>
@@ -10793,46 +10895,46 @@
         <v>86</v>
       </c>
       <c r="D36" s="7">
-        <v>51502</v>
+        <v>48847</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>856</v>
+        <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>462</v>
+        <v>880</v>
       </c>
       <c r="H36" s="7">
         <v>199</v>
       </c>
       <c r="I36" s="7">
-        <v>109857</v>
+        <v>99025</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>857</v>
+        <v>435</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="M36" s="7">
         <v>285</v>
       </c>
       <c r="N36" s="7">
-        <v>161359</v>
+        <v>147872</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>494</v>
+        <v>885</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10844,46 +10946,46 @@
         <v>138</v>
       </c>
       <c r="D37" s="7">
-        <v>89723</v>
+        <v>85501</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>743</v>
+        <v>886</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>482</v>
+        <v>887</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="H37" s="7">
         <v>383</v>
       </c>
       <c r="I37" s="7">
-        <v>206256</v>
+        <v>185898</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>864</v>
+        <v>390</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="M37" s="7">
         <v>521</v>
       </c>
       <c r="N37" s="7">
-        <v>295979</v>
+        <v>271399</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10895,46 +10997,46 @@
         <v>801</v>
       </c>
       <c r="D38" s="7">
-        <v>554248</v>
+        <v>514510</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="H38" s="7">
         <v>1124</v>
       </c>
       <c r="I38" s="7">
-        <v>709478</v>
+        <v>748301</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>871</v>
+        <v>896</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>122</v>
+        <v>897</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="M38" s="7">
         <v>1925</v>
       </c>
       <c r="N38" s="7">
-        <v>1263725</v>
+        <v>1262810</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>875</v>
+        <v>901</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10946,7 +11048,7 @@
         <v>1025</v>
       </c>
       <c r="D39" s="7">
-        <v>695473</v>
+        <v>648858</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>39</v>
@@ -10961,7 +11063,7 @@
         <v>1706</v>
       </c>
       <c r="I39" s="7">
-        <v>1025591</v>
+        <v>1033224</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>39</v>
@@ -10976,7 +11078,7 @@
         <v>2731</v>
       </c>
       <c r="N39" s="7">
-        <v>1721064</v>
+        <v>1682081</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>39</v>
